--- a/カード当てゲーム/振り返り/57_開発体験シート.xlsx
+++ b/カード当てゲーム/振り返り/57_開発体験シート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EC7FEB-19A0-4DBB-8206-F8120DD7D4B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA88AB7E-79A9-4791-85EA-EE6B207BED7E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1732,10 +1732,10 @@
   <dimension ref="B7:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2139,7 +2139,7 @@
         <v>56</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G26" s="42"/>
       <c r="H26" s="51" t="str">
@@ -2396,6 +2396,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2579,12 +2585,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
   <ds:schemaRefs>
@@ -2594,6 +2594,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2743DCF2-B1B4-490A-A9E5-9EED718529EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2609,13 +2618,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>